--- a/pid_controller.xlsx
+++ b/pid_controller.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="toml.config" sheetId="1" state="visible" r:id="rId1"/>
@@ -1896,7 +1896,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" min="1" max="1" style="1" width="115.00390625"/>
   </cols>
@@ -3425,11 +3425,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z11" s="48">
-        <f>Z10*Y11+T11*(1-Y11)</f>
+        <f t="shared" ref="Z11:Z74" si="44">Z10*Y11+T11*(1-Y11)</f>
         <v>-0.20020132625037024</v>
       </c>
       <c r="AA11" s="49">
-        <f t="shared" ref="AA11:AA74" si="44">T11*M11+(Z10-T11)*(1-Y11)/(ALPHA_I/ALPHA_TIME_UNIT)</f>
+        <f t="shared" ref="AA11:AA74" si="45">T11*M11+(Z10-T11)*(1-Y11)/(ALPHA_I/ALPHA_TIME_UNIT)</f>
         <v>-717.09098130558425</v>
       </c>
       <c r="AB11" s="50">
@@ -3457,11 +3457,11 @@
         <v>-0.00051060716629000016</v>
       </c>
       <c r="AH11" s="51">
-        <f t="shared" ref="AH11:AH74" si="45">AG11+AH10</f>
+        <f t="shared" ref="AH11:AH74" si="46">AG11+AH10</f>
         <v>-0.011434869436394528</v>
       </c>
       <c r="AI11" s="41">
-        <f t="shared" ref="AI11:AI74" si="46">EXP(LN(AI10+LOG_SHIFT)+AG11)-LOG_SHIFT</f>
+        <f t="shared" ref="AI11:AI74" si="47">EXP(LN(AI10+LOG_SHIFT)+AG11)-LOG_SHIFT</f>
         <v>1479.5344683548215</v>
       </c>
     </row>
@@ -3535,11 +3535,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z12" s="48">
-        <f t="shared" ref="Z12:Z75" si="47">Z11*Y12+T12*(1-Y12)</f>
+        <f t="shared" si="44"/>
         <v>-0.2021539601774523</v>
       </c>
       <c r="AA12" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-724.26294651022727</v>
       </c>
       <c r="AB12" s="50">
@@ -3567,11 +3567,11 @@
         <v>-0.00052266801386295571</v>
       </c>
       <c r="AH12" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.011957537450257485</v>
       </c>
       <c r="AI12" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1478.6046056345647</v>
       </c>
     </row>
@@ -3645,11 +3645,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z13" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.20403003023312763</v>
       </c>
       <c r="AA13" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-731.15369493683215</v>
       </c>
       <c r="AB13" s="50">
@@ -3677,11 +3677,11 @@
         <v>-0.00052946735721444351</v>
       </c>
       <c r="AH13" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.012487004807471929</v>
       </c>
       <c r="AI13" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1477.6631418136642</v>
       </c>
     </row>
@@ -3749,11 +3749,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z14" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.2058325385297346</v>
       </c>
       <c r="AA14" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-737.77425325298509</v>
       </c>
       <c r="AB14" s="50">
@@ -3781,11 +3781,11 @@
         <v>-0.00053423847008905224</v>
       </c>
       <c r="AH14" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.013021243277560981</v>
       </c>
       <c r="AI14" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1476.7136994133575</v>
       </c>
     </row>
@@ -3858,11 +3858,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z15" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.20756436946510307</v>
       </c>
       <c r="AA15" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-744.13521576445169</v>
       </c>
       <c r="AB15" s="50">
@@ -3890,11 +3890,11 @@
         <v>-0.00053817443954819557</v>
       </c>
       <c r="AH15" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.013559417717109177</v>
       </c>
       <c r="AI15" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1475.7577747641171</v>
       </c>
     </row>
@@ -3968,11 +3968,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z16" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.20922829433820625</v>
       </c>
       <c r="AA16" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-750.24676136832682</v>
       </c>
       <c r="AB16" s="50">
@@ -4000,11 +4000,11 @@
         <v>-0.00054171766749877071</v>
       </c>
       <c r="AH16" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.014101135384607947</v>
       </c>
       <c r="AI16" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1474.7960759124762</v>
       </c>
     </row>
@@ -4079,11 +4079,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z17" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.21082697578383039</v>
       </c>
       <c r="AA17" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-756.1186698414416</v>
       </c>
       <c r="AB17" s="50">
@@ -4111,11 +4111,11 @@
         <v>-0.00054503425737921192</v>
       </c>
       <c r="AH17" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.014646169641987158</v>
       </c>
       <c r="AI17" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1473.8290148158953</v>
       </c>
     </row>
@@ -4189,11 +4189,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z18" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.21236297203335838</v>
       </c>
       <c r="AA18" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-761.76033749009252</v>
       </c>
       <c r="AB18" s="50">
@@ -4221,11 +4221,11 @@
         <v>-0.00054818853663377563</v>
       </c>
       <c r="AH18" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.015194358178620934</v>
       </c>
       <c r="AI18" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1472.8568885626039</v>
       </c>
     </row>
@@ -4299,11 +4299,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z19" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.21383874100848591</v>
       </c>
       <c r="AA19" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-767.18079218613616</v>
       </c>
       <c r="AB19" s="50">
@@ -4331,11 +4331,11 @@
         <v>-0.0005512072650977897</v>
       </c>
       <c r="AH19" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.015745565443718725</v>
       </c>
       <c r="AI19" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1471.8799462392371</v>
       </c>
     </row>
@@ -4409,11 +4409,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z20" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.21525664425442037</v>
       </c>
       <c r="AA20" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-772.38870781351068</v>
       </c>
       <c r="AB20" s="50">
@@ -4441,11 +4441,11 @@
         <v>-0.0005541032608953456</v>
       </c>
       <c r="AH20" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.016299668704614072</v>
       </c>
       <c r="AI20" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1470.8984137434031</v>
       </c>
     </row>
@@ -4513,11 +4513,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z21" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.21661895071885717</v>
       </c>
       <c r="AA21" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-777.39241814830007</v>
       </c>
       <c r="AB21" s="50">
@@ -4545,11 +4545,11 @@
         <v>-0.00055688409667994259</v>
       </c>
       <c r="AH21" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.016856552801294014</v>
       </c>
       <c r="AI21" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1469.9125031244052</v>
       </c>
     </row>
@@ -4617,11 +4617,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z22" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.21792784038278004</v>
       </c>
       <c r="AA22" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-782.19993019455421</v>
       </c>
       <c r="AB22" s="50">
@@ -4649,11 +4649,11 @@
         <v>-0.00055955530337465189</v>
       </c>
       <c r="AH22" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.017416108104668666</v>
       </c>
       <c r="AI22" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1468.9224162267928</v>
       </c>
     </row>
@@ -4721,11 +4721,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z23" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.21918540774889569</v>
       </c>
       <c r="AA23" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-786.81893699720354</v>
       </c>
       <c r="AB23" s="50">
@@ -4753,11 +4753,11 @@
         <v>-0.00056212155315500407</v>
       </c>
       <c r="AH23" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.017978229657823669</v>
       </c>
       <c r="AI23" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1467.9283462310341</v>
       </c>
     </row>
@@ -4825,11 +4825,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z24" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.22039366519328504</v>
       </c>
       <c r="AA24" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-791.25682995257216</v>
       </c>
       <c r="AB24" s="50">
@@ -4857,11 +4857,11 @@
         <v>-0.0005645870988645748</v>
       </c>
       <c r="AH24" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.018542816756688243</v>
       </c>
       <c r="AI24" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1466.93047841319</v>
       </c>
     </row>
@@ -4929,11 +4929,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z25" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.21175190597427423</v>
       </c>
       <c r="AA25" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-777.75832971097179</v>
       </c>
       <c r="AB25" s="50">
@@ -4961,11 +4961,11 @@
         <v>0.0014642737260950956</v>
       </c>
       <c r="AH25" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.017078543030593148</v>
       </c>
       <c r="AI25" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1469.5196434491168</v>
       </c>
     </row>
@@ -5033,11 +5033,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z26" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.20344899498093211</v>
       </c>
       <c r="AA26" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-747.261989400792</v>
       </c>
       <c r="AB26" s="50">
@@ -5065,11 +5065,11 @@
         <v>0.00028248692806278291</v>
       </c>
       <c r="AH26" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.016796056102530366</v>
       </c>
       <c r="AI26" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1470.0195802268188</v>
       </c>
     </row>
@@ -5137,11 +5137,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z27" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.19547164578428869</v>
       </c>
       <c r="AA27" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-717.96142769790799</v>
       </c>
       <c r="AB27" s="50">
@@ -5169,11 +5169,11 @@
         <v>-0.0001422228137669121</v>
       </c>
       <c r="AH27" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.016938278916297279</v>
       </c>
       <c r="AI27" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1469.7678609622319</v>
       </c>
     </row>
@@ -5241,11 +5241,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z28" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.18780709292370557</v>
       </c>
       <c r="AA28" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-689.80975745248031</v>
       </c>
       <c r="AB28" s="50">
@@ -5273,11 +5273,11 @@
         <v>-0.00028881335404952994</v>
       </c>
       <c r="AH28" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.01722709227034681</v>
       </c>
       <c r="AI28" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1469.2568021742725</v>
       </c>
     </row>
@@ -5345,11 +5345,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z29" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.18044307147941543</v>
       </c>
       <c r="AA29" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-662.76192998611168</v>
       </c>
       <c r="AB29" s="50">
@@ -5377,11 +5377,11 @@
         <v>-0.00033346799634406102</v>
       </c>
       <c r="AH29" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.01756056026669087</v>
       </c>
       <c r="AI29" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1468.6669100139777</v>
       </c>
     </row>
@@ -5449,11 +5449,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z30" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.17336779744603376</v>
       </c>
       <c r="AA30" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-636.77466300435015</v>
       </c>
       <c r="AB30" s="50">
@@ -5481,11 +5481,11 @@
         <v>-0.00034098611712695488</v>
       </c>
       <c r="AH30" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.017901546383817826</v>
       </c>
       <c r="AI30" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1468.0639219629606</v>
       </c>
     </row>
@@ -5553,11 +5553,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z31" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.16656994887563617</v>
       </c>
       <c r="AA31" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-611.80637133578352</v>
       </c>
       <c r="AB31" s="50">
@@ -5585,11 +5585,11 @@
         <v>-0.00033519181785872707</v>
       </c>
       <c r="AH31" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.018236738201676553</v>
       </c>
       <c r="AI31" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1467.4713807159035</v>
       </c>
     </row>
@@ -5657,11 +5657,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z32" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.16003864776022625</v>
       </c>
       <c r="AA32" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-587.81710038689414</v>
       </c>
       <c r="AB32" s="50">
@@ -5689,11 +5689,11 @@
         <v>-0.00032483579774720677</v>
       </c>
       <c r="AH32" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.01856157399942376</v>
       </c>
       <c r="AI32" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1466.8973359801403</v>
       </c>
     </row>
@@ -5761,11 +5761,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z33" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.15376344262460198</v>
       </c>
       <c r="AA33" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-564.76846220618381</v>
       </c>
       <c r="AB33" s="50">
@@ -5793,11 +5793,11 @@
         <v>-0.00031312409830592706</v>
       </c>
       <c r="AH33" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.018874698097729688</v>
       </c>
       <c r="AI33" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1466.3441644551992</v>
       </c>
     </row>
@@ -5865,11 +5865,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z34" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.14773429180176573</v>
       </c>
       <c r="AA34" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-542.62357405526268</v>
       </c>
       <c r="AB34" s="50">
@@ -5897,11 +5897,11 @@
         <v>-0.00030122351151741424</v>
       </c>
       <c r="AH34" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.019175921609247103</v>
       </c>
       <c r="AI34" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1465.8121801905409</v>
       </c>
     </row>
@@ -5969,11 +5969,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z35" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.14194154736411463</v>
       </c>
       <c r="AA35" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-521.34699938859887</v>
       </c>
       <c r="AB35" s="50">
@@ -6001,11 +6001,11 @@
         <v>-0.0002895511271951087</v>
       </c>
       <c r="AH35" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.01946547273644221</v>
       </c>
       <c r="AI35" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1465.3009612989269</v>
       </c>
     </row>
@@ -6073,11 +6073,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z36" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.13637593968469813</v>
       </c>
       <c r="AA36" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-500.9046911474847</v>
       </c>
       <c r="AB36" s="50">
@@ -6105,11 +6105,11 @@
         <v>-0.00027824871150531748</v>
       </c>
       <c r="AH36" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.019743721447947529</v>
       </c>
       <c r="AI36" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1464.8098369115589</v>
       </c>
     </row>
@@ -6177,11 +6177,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z37" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.13102856260383725</v>
       </c>
       <c r="AA37" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-481.26393727748001</v>
       </c>
       <c r="AB37" s="50">
@@ -6209,11 +6209,11 @@
         <v>-0.0002673572023941324</v>
       </c>
       <c r="AH37" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.020011078650341661</v>
       </c>
       <c r="AI37" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1464.3380653593763</v>
       </c>
     </row>
@@ -6281,11 +6281,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z38" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.12589085917736897</v>
       </c>
       <c r="AA38" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-462.39330838214545</v>
       </c>
       <c r="AB38" s="50">
@@ -6313,11 +6313,11 @@
         <v>-0.00025688088492132347</v>
       </c>
       <c r="AH38" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.020267959535262985</v>
       </c>
       <c r="AI38" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1463.8848988432455</v>
       </c>
     </row>
@@ -6385,11 +6385,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z39" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.12095460798371005</v>
       </c>
       <c r="AA39" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-444.26260742930316</v>
       </c>
       <c r="AB39" s="50">
@@ -6417,11 +6417,11 @@
         <v>-0.00024681098280374033</v>
       </c>
       <c r="AH39" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.020514770518066727</v>
       </c>
       <c r="AI39" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1463.449606397498</v>
       </c>
     </row>
@@ -6489,11 +6489,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z40" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.11621190996782846</v>
       </c>
       <c r="AA40" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-426.84282142934273</v>
       </c>
       <c r="AB40" s="50">
@@ -6521,11 +6521,11 @@
         <v>-0.00023713432069263823</v>
       </c>
       <c r="AH40" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.020751904838759366</v>
       </c>
       <c r="AI40" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1463.0314815508443</v>
       </c>
     </row>
@@ -6593,11 +6593,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z41" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.11165517580107015</v>
       </c>
       <c r="AA41" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-410.10607500824818</v>
       </c>
       <c r="AB41" s="50">
@@ -6625,11 +6625,11 @@
         <v>-0.0002278364949305217</v>
       </c>
       <c r="AH41" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.020979741333689888</v>
       </c>
       <c r="AI41" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1462.6298443931737</v>
       </c>
     </row>
@@ -6697,11 +6697,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z42" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.10727711373661401</v>
       </c>
       <c r="AA42" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-394.02558580105284</v>
       </c>
       <c r="AB42" s="50">
@@ -6729,11 +6729,11 @@
         <v>-0.00021890302471461431</v>
       </c>
       <c r="AH42" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.021198644358404503</v>
       </c>
       <c r="AI42" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1462.2440416170211</v>
       </c>
     </row>
@@ -6801,11 +6801,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z43" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.10307071794112134</v>
       </c>
       <c r="AA43" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-378.57562159434059</v>
       </c>
       <c r="AB43" s="50">
@@ -6833,11 +6833,11 @@
         <v>-0.00021031976089308356</v>
       </c>
       <c r="AH43" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.021408964119297588</v>
       </c>
       <c r="AI43" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1461.8734458447257</v>
       </c>
     </row>
@@ -6905,11 +6905,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z44" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.099029257283907837</v>
       </c>
       <c r="AA44" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-363.73145914921542</v>
       </c>
       <c r="AB44" s="50">
@@ -6937,11 +6937,11 @@
         <v>-0.00020207302223574676</v>
       </c>
       <c r="AH44" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.021611037141533333</v>
       </c>
       <c r="AI44" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1461.5174547220388</v>
       </c>
     </row>
@@ -7009,11 +7009,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z45" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.095146264565698455</v>
       </c>
       <c r="AA45" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-349.46934463884458</v>
       </c>
       <c r="AB45" s="50">
@@ -7041,11 +7041,11 @@
         <v>-0.00019414963200177647</v>
       </c>
       <c r="AH45" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.021805186773535108</v>
       </c>
       <c r="AI45" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1461.1754899536816</v>
       </c>
     </row>
@@ -7113,11 +7113,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z46" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.091415526169728825</v>
       </c>
       <c r="AA46" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-335.7664556372672</v>
       </c>
       <c r="AB46" s="50">
@@ -7145,11 +7145,11 @@
         <v>-0.00018653691836055411</v>
       </c>
       <c r="AH46" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.021991723691895664</v>
       </c>
       <c r="AI46" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1460.8469963441385</v>
       </c>
     </row>
@@ -7217,11 +7217,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z47" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.08783107211863278</v>
       </c>
       <c r="AA47" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-322.60086459864448</v>
       </c>
       <c r="AB47" s="50">
@@ -7249,11 +7249,11 @@
         <v>-0.00017922270202581846</v>
       </c>
       <c r="AH47" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.022170946393921483</v>
       </c>
       <c r="AI47" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1460.5314408657969</v>
       </c>
     </row>
@@ -7321,11 +7321,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z48" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.084387166521204912</v>
       </c>
       <c r="AA48" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-309.95150376850779</v>
       </c>
       <c r="AB48" s="50">
@@ -7353,11 +7353,11 @@
         <v>-0.00017219527967679086</v>
       </c>
       <c r="AH48" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.022343141673598275</v>
       </c>
       <c r="AI48" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1460.2283117614065</v>
       </c>
     </row>
@@ -7425,11 +7425,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z49" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.081078298393750942</v>
       </c>
       <c r="AA49" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-297.79813147085719</v>
       </c>
       <c r="AB49" s="50">
@@ -7457,11 +7457,11 @@
         <v>-0.00016544340630110827</v>
       </c>
       <c r="AH49" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.022508585079899383</v>
       </c>
       <c r="AI49" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1459.9371176823756</v>
       </c>
     </row>
@@ -7529,11 +7529,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z50" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.077899172841338044</v>
       </c>
       <c r="AA50" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-286.12129971716081</v>
       </c>
       <c r="AB50" s="50">
@@ -7561,11 +7561,11 @@
         <v>-0.00015895627759430835</v>
       </c>
       <c r="AH50" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.02266754135749369</v>
       </c>
       <c r="AI50" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1459.6573868624234</v>
       </c>
     </row>
@@ -7633,11 +7633,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z51" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.07484470258483332</v>
       </c>
       <c r="AA51" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-274.90232308542471</v>
       </c>
       <c r="AB51" s="50">
@@ -7665,11 +7665,11 @@
         <v>-0.00015272351281554728</v>
       </c>
       <c r="AH51" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.022820264870309238</v>
       </c>
       <c r="AI51" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1459.3886663254441</v>
       </c>
     </row>
@@ -7737,11 +7737,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z52" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.071909999820171863</v>
       </c>
       <c r="AA52" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-264.12324881953094</v>
       </c>
       <c r="AB52" s="50">
@@ -7769,11 +7769,11 @@
         <v>-0.00014673513822950851</v>
       </c>
       <c r="AH52" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.022967000008538747</v>
       </c>
       <c r="AI52" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1459.1305211262406</v>
       </c>
     </row>
@@ -7841,11 +7841,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z53" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.069090368396827445</v>
       </c>
       <c r="AA53" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-253.76682810099746</v>
       </c>
       <c r="AB53" s="50">
@@ -7873,11 +7873,11 @@
         <v>-0.00014098157116590964</v>
       </c>
       <c r="AH53" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.023107981579704655</v>
       </c>
       <c r="AI53" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1458.8825336227312</v>
       </c>
     </row>
@@ -7943,11 +7943,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z54" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.066381296302969794</v>
       </c>
       <c r="AA54" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-243.81648844718902</v>
       </c>
       <c r="AB54" s="50">
@@ -7975,11 +7975,11 @@
         <v>-0.00013545360469240046</v>
       </c>
       <c r="AH54" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.023243435184397056</v>
       </c>
       <c r="AI54" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1458.6443027782987</v>
       </c>
     </row>
@@ -8045,11 +8045,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z55" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.06377844844528302</v>
       </c>
       <c r="AA55" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-234.25630719180907</v>
       </c>
       <c r="AB55" s="50">
@@ -8077,11 +8077,11 @@
         <v>-0.00013014239288416094</v>
       </c>
       <c r="AH55" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.023373577577281219</v>
       </c>
       <c r="AI55" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1458.4154434929728</v>
       </c>
     </row>
@@ -8147,11 +8147,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z56" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.061277659711891502</v>
       </c>
       <c r="AA56" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-225.07098600523656</v>
       </c>
       <c r="AB56" s="50">
@@ -8179,11 +8179,11 @@
         <v>-0.00012503943666951063</v>
       </c>
       <c r="AH56" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.023498617013950729</v>
       </c>
       <c r="AI56" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1458.1955859622046</v>
       </c>
     </row>
@@ -8249,11 +8249,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z57" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.058874928307292226</v>
       </c>
       <c r="AA57" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-216.24582641393511</v>
       </c>
       <c r="AB57" s="50">
@@ -8281,11 +8281,11 @@
         <v>-0.00012013657022993994</v>
       </c>
       <c r="AH57" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.023618753584180668</v>
       </c>
       <c r="AI57" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1457.9843750620448</v>
       </c>
     </row>
@@ -8351,11 +8351,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z58" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.056566409348628235</v>
       </c>
       <c r="AA58" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-207.76670627975909</v>
       </c>
       <c r="AB58" s="50">
@@ -8383,11 +8383,11 @@
         <v>-0.00011542594793319068</v>
       </c>
       <c r="AH58" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.023734179532113858</v>
       </c>
       <c r="AI58" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1457.7814697595954</v>
       </c>
     </row>
@@ -8453,11 +8453,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z59" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.054348408713055789</v>
       </c>
       <c r="AA59" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-199.62005720151996</v>
       </c>
       <c r="AB59" s="50">
@@ -8485,11 +8485,11 @@
         <v>-0.00011090003177861896</v>
       </c>
       <c r="AH59" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.023845079563892476</v>
       </c>
       <c r="AI59" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1457.5865425476568</v>
       </c>
     </row>
@@ -8555,11 +8555,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z60" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.052217377126359682</v>
       </c>
       <c r="AA60" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-191.79284280264957</v>
       </c>
       <c r="AB60" s="50">
@@ -8587,11 +8587,11 @@
         <v>-0.00010655157933480413</v>
       </c>
       <c r="AH60" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.023951631143227282</v>
       </c>
       <c r="AI60" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1457.3992789025265</v>
       </c>
     </row>
@@ -8657,11 +8657,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z61" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.050169904483357279</v>
       </c>
       <c r="AA61" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-184.27253787021641</v>
       </c>
       <c r="AB61" s="50">
@@ -8689,11 +8689,11 @@
         <v>-0.00010237363215011981</v>
       </c>
       <c r="AH61" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.024054004775377402</v>
       </c>
       <c r="AI61" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1457.2193767639819</v>
       </c>
     </row>
@@ -8759,11 +8759,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z62" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.048202714391002696</v>
       </c>
       <c r="AA62" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-177.04710831191269</v>
       </c>
       <c r="AB62" s="50">
@@ -8791,11 +8791,11 @@
         <v>-9.8359504617729124e-05</v>
       </c>
       <c r="AH62" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.02415236427999513</v>
       </c>
       <c r="AI62" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1457.0465460364908</v>
       </c>
     </row>
@@ -8861,11 +8861,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z63" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.046312658925458924</v>
       </c>
       <c r="AA63" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-170.10499189893926</v>
       </c>
       <c r="AB63" s="50">
@@ -8893,11 +8893,11 @@
         <v>-9.4502773277188427e-05</v>
       </c>
       <c r="AH63" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.024246867053272319</v>
       </c>
       <c r="AI63" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1456.8805081107591</v>
       </c>
     </row>
@@ -8963,11 +8963,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z64" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.044496713594748112</v>
       </c>
       <c r="AA64" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-163.43507976397285</v>
       </c>
       <c r="AB64" s="50">
@@ -8995,11 +8995,11 @@
         <v>-9.079726653554047e-05</v>
       </c>
       <c r="AH64" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.024337664319807859</v>
       </c>
       <c r="AI64" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1456.7209954047614</v>
       </c>
     </row>
@@ -9065,11 +9065,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z65" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.042751972498919134</v>
       </c>
       <c r="AA65" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-157.02669862460826</v>
       </c>
       <c r="AB65" s="50">
@@ -9097,11 +9097,11 @@
         <v>-8.7237054791449025e-05</v>
       </c>
       <c r="AH65" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.024424901374599309</v>
       </c>
       <c r="AI65" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1456.5677509234276</v>
       </c>
     </row>
@@ -9167,11 +9167,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z66" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.041075643679987693</v>
       </c>
       <c r="AA66" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-150.86959370382954</v>
       </c>
       <c r="AB66" s="50">
@@ -9199,11 +9199,11 @@
         <v>-8.3816440946571992e-05</v>
       </c>
       <c r="AH66" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.02450871781554588</v>
       </c>
       <c r="AI66" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1456.4205278362069</v>
       </c>
     </row>
@@ -9269,11 +9269,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z67" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.039465044654207929</v>
       </c>
       <c r="AA67" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-144.95391232017872</v>
       </c>
       <c r="AB67" s="50">
@@ -9301,11 +9301,11 @@
         <v>-8.0529951288988189e-05</v>
       </c>
       <c r="AH67" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.024589247766834868</v>
       </c>
       <c r="AI67" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1456.2790890717627</v>
       </c>
     </row>
@@ -9371,11 +9371,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z68" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.037917598119526108</v>
       </c>
       <c r="AA68" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-139.27018812136382</v>
       </c>
       <c r="AB68" s="50">
@@ -9403,11 +9403,11 @@
         <v>-7.7372326734091027e-05</v>
       </c>
       <c r="AH68" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.024666620093568958</v>
       </c>
       <c r="AI68" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1456.1432069290736</v>
       </c>
     </row>
@@ -9473,11 +9473,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z69" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.036430827831347497</v>
       </c>
       <c r="AA69" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-133.8093259360752</v>
       </c>
       <c r="AB69" s="50">
@@ -9505,11 +9505,11 @@
         <v>-7.4338514408930673e-05</v>
       </c>
       <c r="AH69" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.024740958607977891</v>
       </c>
       <c r="AI69" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1456.0126627042728</v>
       </c>
     </row>
@@ -9575,11 +9575,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z70" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.035002354640016706</v>
       </c>
       <c r="AA70" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-128.56258721977144</v>
       </c>
       <c r="AB70" s="50">
@@ -9607,11 +9607,11 @@
         <v>-7.1423659566539701e-05</v>
       </c>
       <c r="AH70" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.024812382267544432</v>
       </c>
       <c r="AI70" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1455.8872463325592</v>
       </c>
     </row>
@@ -9677,11 +9677,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z71" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.03362989268367067</v>
       </c>
       <c r="AA71" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-123.52157607114344</v>
       </c>
       <c r="AB71" s="50">
@@ -9709,11 +9709,11 @@
         <v>-6.8623097817301917e-05</v>
       </c>
       <c r="AH71" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.024881005365361735</v>
       </c>
       <c r="AI71" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1455.7667560445532</v>
       </c>
     </row>
@@ -9779,11 +9779,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z72" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.032311245730371987</v>
       </c>
       <c r="AA72" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-118.67822579688126</v>
       </c>
       <c r="AB72" s="50">
@@ -9811,11 +9811,11 @@
         <v>-6.5932347664934051e-05</v>
       </c>
       <c r="AH72" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.024946937713026668</v>
       </c>
       <c r="AI72" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1455.6509980365156</v>
       </c>
     </row>
@@ -9881,11 +9881,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z73" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.031044303663669278</v>
       </c>
       <c r="AA73" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-114.0247860032438</v>
       </c>
       <c r="AB73" s="50">
@@ -9913,11 +9913,11 @@
         <v>-6.3347103335135454e-05</v>
       </c>
       <c r="AH73" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.025010284816361802</v>
       </c>
       <c r="AI73" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1455.5397861538347</v>
       </c>
     </row>
@@ -9983,11 +9983,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z74" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>-0.029827039105960663</v>
       </c>
       <c r="AA74" s="49">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-109.55381019377535</v>
       </c>
       <c r="AB74" s="50">
@@ -10015,11 +10015,11 @@
         <v>-6.0863227885430757e-05</v>
       </c>
       <c r="AH74" s="51">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.025071148044247232</v>
       </c>
       <c r="AI74" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1455.4329415872542</v>
       </c>
     </row>
@@ -10085,11 +10085,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z75" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="Z75:Z99" si="69">Z74*Y75+T75*(1-Y75)</f>
         <v>-0.028657504174257078</v>
       </c>
       <c r="AA75" s="49">
-        <f t="shared" ref="AA75:AA99" si="69">T75*M75+(Z74-T75)*(1-Y75)/(ALPHA_I/ALPHA_TIME_UNIT)</f>
+        <f t="shared" ref="AA75:AA99" si="70">T75*M75+(Z74-T75)*(1-Y75)/(ALPHA_I/ALPHA_TIME_UNIT)</f>
         <v>-105.25814385332255</v>
       </c>
       <c r="AB75" s="50">
@@ -10117,11 +10117,11 @@
         <v>-5.8476746585179204e-05</v>
       </c>
       <c r="AH75" s="51">
-        <f t="shared" ref="AH75:AH99" si="70">AG75+AH74</f>
+        <f t="shared" ref="AH75:AH99" si="71">AG75+AH74</f>
         <v>-0.025129624790832413</v>
       </c>
       <c r="AI75" s="41">
-        <f t="shared" ref="AI75:AI99" si="71">EXP(LN(AI74+LOG_SHIFT)+AG75)-LOG_SHIFT</f>
+        <f t="shared" ref="AI75:AI99" si="72">EXP(LN(AI74+LOG_SHIFT)+AG75)-LOG_SHIFT</f>
         <v>1455.3302925813005</v>
       </c>
     </row>
@@ -10187,11 +10187,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z76" s="48">
-        <f t="shared" ref="Z76:Z99" si="72">Z75*Y76+T76*(1-Y76)</f>
+        <f t="shared" si="69"/>
         <v>-0.027533827363153924</v>
       </c>
       <c r="AA76" s="49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-101.13091299928379</v>
       </c>
       <c r="AB76" s="50">
@@ -10219,11 +10219,11 @@
         <v>-5.6183840555157671e-05</v>
       </c>
       <c r="AH76" s="51">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.025185808631387571</v>
       </c>
       <c r="AI76" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1455.2316741544275</v>
       </c>
     </row>
@@ -10289,11 +10289,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z77" s="48">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>-0.02645421055002314</v>
       </c>
       <c r="AA77" s="49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-97.165513181770493</v>
       </c>
       <c r="AB77" s="50">
@@ -10321,11 +10321,11 @@
         <v>-5.3980840656539167e-05</v>
       </c>
       <c r="AH77" s="51">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.025239789472044111</v>
       </c>
       <c r="AI77" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1455.1369278303764</v>
       </c>
     </row>
@@ -10391,11 +10391,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z78" s="48">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>-0.025416926117633382</v>
       </c>
       <c r="AA78" s="49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-93.355598915078289</v>
       </c>
       <c r="AB78" s="50">
@@ -10423,11 +10423,11 @@
         <v>-5.1864221619487942e-05</v>
       </c>
       <c r="AH78" s="51">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.0252916536936636</v>
       </c>
       <c r="AI78" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1455.0459013803072</v>
       </c>
     </row>
@@ -10493,11 +10493,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z79" s="48">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>-0.02442031418959387</v>
       </c>
       <c r="AA79" s="49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-89.695073523556118</v>
       </c>
       <c r="AB79" s="50">
@@ -10525,11 +10525,11 @@
         <v>-4.9830596401975632e-05</v>
       </c>
       <c r="AH79" s="51">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.025341484290065577</v>
       </c>
       <c r="AI79" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1454.9584485752591</v>
       </c>
     </row>
@@ -10595,11 +10595,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z80" s="48">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>-0.023462779974198041</v>
       </c>
       <c r="AA80" s="49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-86.178079385624542</v>
       </c>
       <c r="AB80" s="50">
@@ -10627,11 +10627,11 @@
         <v>-4.7876710769791419e-05</v>
       </c>
       <c r="AH80" s="51">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.025389361000835369</v>
       </c>
       <c r="AI80" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1454.874428948511</v>
       </c>
     </row>
@@ -10697,11 +10697,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z81" s="48">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>-0.02254279121241658</v>
       </c>
       <c r="AA81" s="49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-82.798988560331352</v>
       </c>
       <c r="AB81" s="50">
@@ -10729,11 +10729,11 @@
         <v>-4.5999438089072978e-05</v>
       </c>
       <c r="AH81" s="51">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.025435360438924443</v>
       </c>
       <c r="AI81" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1454.7937075674463</v>
       </c>
     </row>
@@ -10799,11 +10799,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z82" s="48">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>-0.021658875725956074</v>
       </c>
       <c r="AA82" s="49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-79.552393781445602</v>
       </c>
       <c r="AB82" s="50">
@@ -10831,11 +10831,11 @@
         <v>-4.4195774323025342e-05</v>
       </c>
       <c r="AH82" s="51">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.025479556213247469</v>
       </c>
       <c r="AI82" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1454.716154814528</v>
       </c>
     </row>
@@ -10901,11 +10901,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z83" s="48">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>-0.020809619061459655</v>
       </c>
       <c r="AA83" s="49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-76.433099804677838</v>
       </c>
       <c r="AB83" s="50">
@@ -10933,11 +10933,11 @@
         <v>-4.246283322482103e-05</v>
       </c>
       <c r="AH83" s="51">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.025522019046472291</v>
       </c>
       <c r="AI83" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1454.6416461770243</v>
       </c>
     </row>
@@ -11003,11 +11003,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z84" s="48">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>-0.019993662227079868</v>
       </c>
       <c r="AA84" s="49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-73.436115094180948</v>
       </c>
       <c r="AB84" s="50">
@@ -11035,11 +11035,11 @@
         <v>-4.0797841718989426e-05</v>
       </c>
       <c r="AH84" s="51">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.02556281688819128</v>
       </c>
       <c r="AI84" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1454.5700620451187</v>
       </c>
     </row>
@@ -11105,11 +11105,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z85" s="48">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>-0.019209699517801781</v>
       </c>
       <c r="AA85" s="49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-70.556643835027842</v>
       </c>
       <c r="AB85" s="50">
@@ -11137,11 +11137,11 @@
         <v>-3.9198135463904355e-05</v>
       </c>
       <c r="AH85" s="51">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.025602015023655184</v>
       </c>
       <c r="AI85" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1454.5012875180714</v>
       </c>
       <c r="AJ85" t="s">
@@ -11210,11 +11210,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z86" s="48">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>-0.018456476426036397</v>
       </c>
       <c r="AA86" s="49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-67.790078258884463</v>
       </c>
       <c r="AB86" s="50">
@@ -11242,11 +11242,11 @@
         <v>-3.7661154588269144e-05</v>
       </c>
       <c r="AH86" s="51">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.025639676178243455</v>
       </c>
       <c r="AI86" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1454.4352122181001</v>
       </c>
       <c r="AJ86" t="s">
@@ -11315,11 +11315,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z87" s="48">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>-0.017732787634140872</v>
       </c>
       <c r="AA87" s="49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-65.131991270597339</v>
       </c>
       <c r="AB87" s="50">
@@ -11347,11 +11347,11 @@
         <v>-3.6184439594776309e-05</v>
       </c>
       <c r="AH87" s="51">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.02567586061783823</v>
       </c>
       <c r="AI87" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1454.3717301116797</v>
       </c>
     </row>
@@ -11417,11 +11417,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z88" s="48">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>-0.017037475085653127</v>
       </c>
       <c r="AA88" s="49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-62.578129363896934</v>
       </c>
       <c r="AB88" s="50">
@@ -11449,11 +11449,11 @@
         <v>-3.4765627424387188e-05</v>
       </c>
       <c r="AH88" s="51">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.025710626245262616</v>
       </c>
       <c r="AI88" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1454.3107393379448</v>
       </c>
     </row>
@@ -11519,11 +11519,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z89" s="48">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>-0.01636942613215446</v>
       </c>
       <c r="AA89" s="49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-60.124405814880042</v>
       </c>
       <c r="AB89" s="50">
@@ -11551,11 +11551,11 @@
         <v>-3.3402447674933361e-05</v>
       </c>
       <c r="AH89" s="51">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.02574402869293755</v>
       </c>
       <c r="AI89" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1454.2521420439198</v>
       </c>
     </row>
@@ -11621,11 +11621,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z90" s="48">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>-0.015727571752794683</v>
       </c>
       <c r="AA90" s="49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-57.766894142379776</v>
       </c>
       <c r="AB90" s="50">
@@ -11653,11 +11653,11 @@
         <v>-3.2092718967988772e-05</v>
       </c>
       <c r="AH90" s="51">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.02577612141190554</v>
       </c>
       <c r="AI90" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1454.1958442263067</v>
       </c>
     </row>
@@ -11723,11 +11723,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z91" s="48">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>-0.015110884843630707</v>
       </c>
       <c r="AA91" s="49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-55.501821824757904</v>
       </c>
       <c r="AB91" s="50">
@@ -11755,11 +11755,11 @@
         <v>-3.0834345458198841e-05</v>
       </c>
       <c r="AH91" s="51">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.025806955757363737</v>
       </c>
       <c r="AI91" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1454.1417555795426</v>
       </c>
     </row>
@@ -11825,11 +11825,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z92" s="48">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>-0.014518378574041091</v>
       </c>
       <c r="AA92" s="49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-53.325564263065473</v>
       </c>
       <c r="AB92" s="50">
@@ -11857,11 +11857,11 @@
         <v>-2.9625313479480826e-05</v>
       </c>
       <c r="AH92" s="51">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.025836581070843218</v>
       </c>
       <c r="AI92" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1454.0897893499073</v>
       </c>
     </row>
@@ -11927,11 +11927,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z93" s="48">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>-0.013949104807586522</v>
       </c>
       <c r="AA93" s="49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-51.234638980911136</v>
       </c>
       <c r="AB93" s="50">
@@ -11959,11 +11959,11 @@
         <v>-2.846368832272841e-05</v>
       </c>
       <c r="AH93" s="51">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.025865044759165946</v>
       </c>
       <c r="AI93" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1454.0398621954121</v>
       </c>
     </row>
@@ -12029,11 +12029,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z94" s="48">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>-0.013402152584789233</v>
       </c>
       <c r="AA94" s="49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-49.225700051755972</v>
       </c>
       <c r="AB94" s="50">
@@ -12061,11 +12061,11 @@
         <v>-2.7347611139864434e-05</v>
       </c>
       <c r="AH94" s="51">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.025892392370305811</v>
       </c>
       <c r="AI94" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1453.9918940512466</v>
       </c>
     </row>
@@ -12131,11 +12131,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z95" s="48">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>-0.012876646665403486</v>
       </c>
       <c r="AA95" s="49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-47.295532744717228</v>
       </c>
       <c r="AB95" s="50">
@@ -12163,11 +12163,11 @@
         <v>-2.6275295969287352e-05</v>
       </c>
       <c r="AH95" s="51">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.025918667666275097</v>
       </c>
       <c r="AI95" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1453.9458080005677</v>
       </c>
     </row>
@@ -12233,11 +12233,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z96" s="48">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>-0.012371746127844453</v>
       </c>
       <c r="AA96" s="49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-45.441048380312999</v>
       </c>
       <c r="AB96" s="50">
@@ -12265,11 +12265,11 @@
         <v>-2.524502687795167e-05</v>
       </c>
       <c r="AH96" s="51">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.025943912693153048</v>
       </c>
       <c r="AI96" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1453.9015301504026</v>
       </c>
     </row>
@@ -12335,11 +12335,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z97" s="48">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>-0.011886643023534274</v>
       </c>
       <c r="AA97" s="49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-43.659279387916165</v>
       </c>
       <c r="AB97" s="50">
@@ -12367,11 +12367,11 @@
         <v>-2.4255155215508988e-05</v>
       </c>
       <c r="AH97" s="51">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.025968167848368556</v>
       </c>
       <c r="AI97" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1453.8589895124724</v>
       </c>
     </row>
@@ -12437,11 +12437,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z98" s="48">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>-0.01142056108401196</v>
       </c>
       <c r="AA98" s="49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-41.947374557008224</v>
       </c>
       <c r="AB98" s="50">
@@ -12469,11 +12469,11 @@
         <v>-2.3304096976115681e-05</v>
       </c>
       <c r="AH98" s="51">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.025991471945344673</v>
       </c>
       <c r="AI98" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1453.8181178887389</v>
       </c>
     </row>
@@ -12539,11 +12539,11 @@
         <v>0.96078943915456017</v>
       </c>
       <c r="Z99" s="48">
-        <f t="shared" si="72"/>
+        <f t="shared" si="69"/>
         <v>-0.010972754478738246</v>
       </c>
       <c r="AA99" s="49">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>-40.302594474634191</v>
       </c>
       <c r="AB99" s="50">
@@ -12571,11 +12571,11 @@
         <v>-2.2390330263685663e-05</v>
       </c>
       <c r="AH99" s="51">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.026013862275608358</v>
       </c>
       <c r="AI99" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1453.778849761472</v>
       </c>
     </row>
